--- a/Hypothesis/hypo_no_11_export_service.xlsx
+++ b/Hypothesis/hypo_no_11_export_service.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="620" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="940" yWindow="940" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="hypo_no_11_export_service" sheetId="1" r:id="rId1"/>
@@ -60,6 +60,21 @@
     <t>ANOVA</t>
   </si>
   <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
     <t>Regression</t>
   </si>
   <si>
@@ -69,43 +84,28 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
     <t>Intercept</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Significance F</t>
-  </si>
-  <si>
-    <t>Coefficients</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P-value</t>
-  </si>
-  <si>
-    <t>Lower 95%</t>
-  </si>
-  <si>
-    <t>Upper 95%</t>
-  </si>
-  <si>
-    <t>Lower 95.0%</t>
-  </si>
-  <si>
-    <t>Upper 95.0%</t>
   </si>
   <si>
     <t>X Variable 1</t>
@@ -172,8 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -459,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +644,7 @@
         <v>656411</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2013</v>
       </c>
@@ -653,6 +654,20 @@
       <c r="C17">
         <v>687894</v>
       </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -664,7 +679,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,48 +691,48 @@
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0.90563253507873853</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>0.82017028859314256</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>0.80732530920693846</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>66680.669840397983</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>16</v>
       </c>
     </row>
@@ -727,156 +742,156 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>283903357523.83923</v>
+      </c>
+      <c r="D12" s="2">
+        <v>283903357523.83923</v>
+      </c>
+      <c r="E12" s="2">
+        <v>63.851428946163203</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.3881040230411582E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="B13" s="2">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>62248364225.098259</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4446311730.3641615</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>283903357523.83923</v>
-      </c>
-      <c r="D12" s="1">
-        <v>283903357523.83923</v>
-      </c>
-      <c r="E12" s="1">
-        <v>63.851428946163203</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.3881040230411582E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <v>62248364225.098259</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4446311730.3641615</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>15</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>346151721748.9375</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>2263448.095563666</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>230157.493236273</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>9.8343445774327929</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>1.148413877543593E-7</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>1769809.3679459756</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>2757086.8231813563</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>1769809.3679459756</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>2757086.8231813563</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>-10.688520997628261</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>1.3376186159251393</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>-7.9907089138676071</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>1.3881040230411556E-6</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>-13.557427598575538</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>-7.8196143966809846</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <v>-13.557427598575538</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <v>-7.8196143966809846</v>
       </c>
     </row>
